--- a/Data/catchments.xlsx
+++ b/Data/catchments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50b799573b46e1f/מסמכים/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\FloodsML\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{C332F426-3B30-4BBB-9026-A5AC59E58FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F77C3325-B9F2-4FDB-856D-2078AEE41DA3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBBE8E5-87A7-4555-A39E-50D355FE5345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catchment characteristic</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>Mean elevation</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>STD</t>
   </si>
 </sst>
 </file>
@@ -399,7 +393,7 @@
   <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -429,12 +423,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -455,14 +445,7 @@
       <c r="F2" s="4">
         <v>1141.0727973329499</v>
       </c>
-      <c r="G2">
-        <f>STDEV(B2:F2)</f>
-        <v>218.15269399875297</v>
-      </c>
-      <c r="H2" s="12">
-        <f>AVERAGE(B2:F2)</f>
-        <v>1114.6136097301824</v>
-      </c>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -483,14 +466,7 @@
       <c r="F3" s="4">
         <v>0.62447592377153105</v>
       </c>
-      <c r="G3">
-        <f>STDEV(B3:F3)</f>
-        <v>0.13679448693395851</v>
-      </c>
-      <c r="H3" s="12">
-        <f>AVERAGE(B3:F3)</f>
-        <v>0.61822167822024243</v>
-      </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -511,14 +487,7 @@
       <c r="F4" s="5">
         <v>111659.0625</v>
       </c>
-      <c r="G4">
-        <f>STDEV(B4:F4)</f>
-        <v>119559.98409914534</v>
-      </c>
-      <c r="H4" s="12">
-        <f>AVERAGE(B4:F4)</f>
-        <v>171107.88750000001</v>
-      </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -539,14 +508,7 @@
       <c r="F5" s="4">
         <v>367.772413793103</v>
       </c>
-      <c r="G5">
-        <f>STDEV(B5:F5)</f>
-        <v>59.744641798189335</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" ref="H3:H5" si="0">AVERAGE(B5:F5)</f>
-        <v>450.31217974265184</v>
-      </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>

--- a/Data/catchments.xlsx
+++ b/Data/catchments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\FloodsML\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBBE8E5-87A7-4555-A39E-50D355FE5345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AF8F0F-6EFB-4A34-B10D-05F700727124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
